--- a/CHIdatabinary.xlsx
+++ b/CHIdatabinary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markkelson/Dropbox (Personal)/CHI/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="951" documentId="13_ncr:1_{E3145FA4-F358-2F4B-878C-FA7ABEDD50CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CA1CD18-FEC3-4ECC-8335-5580CF23AB69}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63851E5E-F1F8-D140-BB88-50173AD992AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="540" windowWidth="23800" windowHeight="20580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -149,9 +147,6 @@
     <t>NormalMentalHealth</t>
   </si>
   <si>
-    <t>Vet2017</t>
-  </si>
-  <si>
     <t>ExcessiveAlcohol</t>
   </si>
   <si>
@@ -390,13 +385,16 @@
   </si>
   <si>
     <t>ReAbuse</t>
+  </si>
+  <si>
+    <t>deVet2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -807,21 +805,21 @@
   <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K59" sqref="K59"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -859,7 +857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -897,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -935,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -973,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1011,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1049,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1087,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1125,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1163,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1201,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1239,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1277,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1315,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1353,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1391,9 +1389,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="B16">
         <v>19</v>
@@ -1408,7 +1406,7 @@
         <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
         <v>14</v>
@@ -1429,9 +1427,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>37</v>
@@ -1446,7 +1444,7 @@
         <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
@@ -1467,9 +1465,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -1484,7 +1482,7 @@
         <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -1505,9 +1503,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>11</v>
@@ -1522,7 +1520,7 @@
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -1543,9 +1541,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>21</v>
@@ -1560,7 +1558,7 @@
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -1581,9 +1579,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -1598,7 +1596,7 @@
         <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
@@ -1607,21 +1605,21 @@
         <v>6</v>
       </c>
       <c r="I21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>46</v>
-      </c>
-      <c r="J21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75">
-      <c r="A22" t="s">
-        <v>47</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -1636,7 +1634,7 @@
         <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
@@ -1657,9 +1655,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>33</v>
@@ -1674,7 +1672,7 @@
         <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
@@ -1695,9 +1693,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>17</v>
@@ -1712,7 +1710,7 @@
         <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
@@ -1733,9 +1731,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>26</v>
@@ -1750,7 +1748,7 @@
         <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
@@ -1759,7 +1757,7 @@
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s">
         <v>16</v>
@@ -1771,9 +1769,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26">
         <v>13</v>
@@ -1788,7 +1786,7 @@
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
         <v>14</v>
@@ -1809,9 +1807,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>15</v>
@@ -1826,7 +1824,7 @@
         <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
@@ -1847,9 +1845,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>22</v>
@@ -1864,7 +1862,7 @@
         <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
@@ -1885,9 +1883,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>17</v>
@@ -1902,7 +1900,7 @@
         <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
@@ -1923,9 +1921,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1940,7 +1938,7 @@
         <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
         <v>14</v>
@@ -1961,9 +1959,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31">
         <v>17</v>
@@ -1978,7 +1976,7 @@
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
@@ -1999,9 +1997,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32">
         <v>101</v>
@@ -2016,7 +2014,7 @@
         <v>192</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
@@ -2037,9 +2035,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33">
         <v>17</v>
@@ -2054,7 +2052,7 @@
         <v>186</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
@@ -2075,9 +2073,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34">
         <v>131</v>
@@ -2092,7 +2090,7 @@
         <v>186</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
@@ -2101,7 +2099,7 @@
         <v>12</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s">
         <v>16</v>
@@ -2113,9 +2111,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35">
         <v>94</v>
@@ -2130,7 +2128,7 @@
         <v>186</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
@@ -2139,7 +2137,7 @@
         <v>12</v>
       </c>
       <c r="I35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J35" t="s">
         <v>16</v>
@@ -2151,9 +2149,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36">
         <v>82</v>
@@ -2168,7 +2166,7 @@
         <v>186</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
@@ -2189,9 +2187,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37">
         <v>113</v>
@@ -2206,7 +2204,7 @@
         <v>186</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
@@ -2227,9 +2225,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38">
         <v>20</v>
@@ -2244,7 +2242,7 @@
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
@@ -2265,9 +2263,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39">
         <v>37</v>
@@ -2303,9 +2301,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40">
         <v>68</v>
@@ -2320,7 +2318,7 @@
         <v>57</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
@@ -2341,9 +2339,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41">
         <v>97</v>
@@ -2358,7 +2356,7 @@
         <v>59</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G41" t="s">
         <v>14</v>
@@ -2379,9 +2377,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42">
         <v>56</v>
@@ -2396,7 +2394,7 @@
         <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
@@ -2417,9 +2415,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B43">
         <v>21</v>
@@ -2434,7 +2432,7 @@
         <v>55</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s">
         <v>14</v>
@@ -2455,9 +2453,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -2472,7 +2470,7 @@
         <v>48</v>
       </c>
       <c r="F44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s">
         <v>14</v>
@@ -2493,9 +2491,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B45">
         <v>46</v>
@@ -2510,7 +2508,7 @@
         <v>64</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
@@ -2531,9 +2529,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46">
         <v>116</v>
@@ -2548,7 +2546,7 @@
         <v>181</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s">
         <v>14</v>
@@ -2569,9 +2567,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47">
         <v>15</v>
@@ -2586,7 +2584,7 @@
         <v>181</v>
       </c>
       <c r="F47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
@@ -2595,7 +2593,7 @@
         <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J47" t="s">
         <v>16</v>
@@ -2607,9 +2605,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48" s="6">
         <v>95</v>
@@ -2624,7 +2622,7 @@
         <v>197</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
@@ -2645,9 +2643,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49">
         <v>46</v>
@@ -2662,7 +2660,7 @@
         <v>58</v>
       </c>
       <c r="F49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
@@ -2683,9 +2681,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50">
         <v>53</v>
@@ -2700,7 +2698,7 @@
         <v>117</v>
       </c>
       <c r="F50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
@@ -2721,9 +2719,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -2738,7 +2736,7 @@
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s">
         <v>14</v>
@@ -2759,9 +2757,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52">
         <v>10</v>
@@ -2776,7 +2774,7 @@
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G52" t="s">
         <v>14</v>
@@ -2797,9 +2795,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B53">
         <v>10</v>
@@ -2814,7 +2812,7 @@
         <v>21</v>
       </c>
       <c r="F53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s">
         <v>14</v>
@@ -2835,9 +2833,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>10</v>
@@ -2852,7 +2850,7 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G54" t="s">
         <v>14</v>
@@ -2873,9 +2871,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -2890,7 +2888,7 @@
         <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G55" t="s">
         <v>14</v>
@@ -2911,9 +2909,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B56">
         <v>8</v>
@@ -2928,7 +2926,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G56" t="s">
         <v>14</v>
@@ -2949,9 +2947,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>718</v>
@@ -2966,7 +2964,7 @@
         <v>990</v>
       </c>
       <c r="F57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G57" t="s">
         <v>14</v>
@@ -2987,9 +2985,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58">
         <v>44</v>
@@ -3004,7 +3002,7 @@
         <v>481</v>
       </c>
       <c r="F58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G58" t="s">
         <v>14</v>
@@ -3025,247 +3023,247 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:12" ht="21">
+    <row r="61" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:12" ht="21">
+    <row r="62" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:12" ht="21">
+    <row r="63" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="2"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:12" ht="21">
+    <row r="64" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="2:5" ht="21">
+    <row r="65" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="2:5" ht="21">
+    <row r="66" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="2:5" ht="21">
+    <row r="67" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="2:5" ht="15.75">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="2:5" ht="15.75">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="2:5" ht="15.75">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="2:5" ht="15.75">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="3"/>
       <c r="C71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="2:5" ht="15.75">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="2:5" ht="15.75">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="2:5" ht="21">
+    <row r="74" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="2:5" ht="15.75">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="3"/>
       <c r="C75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="2:5" ht="15.75">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="2:5" ht="15.75">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="2:5" ht="15.75">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="2:5" ht="15.75">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="2:5" ht="18" customHeight="1">
+    <row r="80" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="2:5" ht="15.75">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="2:5" ht="15.75">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="2:5" ht="15.75">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="2:5" ht="21">
+    <row r="84" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="2:5" ht="21">
+    <row r="85" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="2:5" ht="15.75">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="2:5" ht="15.75">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="2:5" ht="15.75">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="2:5" ht="21">
+    <row r="89" spans="2:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="2:5" ht="15.75">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="2:5" ht="15.75">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="2:5" ht="15.75">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="2:5" ht="15.75">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="2:5" ht="15.75">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="2:5" ht="15.75">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="2:5" ht="15.75">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" ht="21">
+    <row r="97" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" ht="15.75">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" ht="21">
+    <row r="99" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" ht="15.75">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" ht="15.75">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" ht="15.75">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" ht="15.75">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" ht="15.75">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" ht="15.75">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" ht="15.75">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" ht="15.75">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3287,9 +3285,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3340,16 +3338,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3387,9 +3385,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -3404,7 +3402,7 @@
         <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -3425,9 +3423,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3442,7 +3440,7 @@
         <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -3454,7 +3452,7 @@
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -3463,9 +3461,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -3480,7 +3478,7 @@
         <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -3492,18 +3490,18 @@
         <v>25</v>
       </c>
       <c r="J4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>102</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>103</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -3518,7 +3516,7 @@
         <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -3530,7 +3528,7 @@
         <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
@@ -3539,9 +3537,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6">
         <v>71</v>
@@ -3556,7 +3554,7 @@
         <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -3568,18 +3566,18 @@
         <v>15</v>
       </c>
       <c r="J6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>102</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>103</v>
       </c>
       <c r="B7">
         <v>78</v>
@@ -3594,7 +3592,7 @@
         <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -3606,7 +3604,7 @@
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
@@ -3615,9 +3613,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -3632,7 +3630,7 @@
         <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -3644,7 +3642,7 @@
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
         <v>17</v>
@@ -3666,17 +3664,17 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3714,9 +3712,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -3731,7 +3729,7 @@
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -3752,9 +3750,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>28</v>
@@ -3769,7 +3767,7 @@
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -3790,9 +3788,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>22</v>
@@ -3807,7 +3805,7 @@
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -3828,9 +3826,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5">
         <v>24</v>
@@ -3845,7 +3843,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -3866,9 +3864,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -3883,7 +3881,7 @@
         <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -3904,9 +3902,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7">
         <v>29</v>
@@ -3921,7 +3919,7 @@
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -3942,9 +3940,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>11</v>
@@ -3959,7 +3957,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -3980,9 +3978,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -3997,7 +3995,7 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -4018,9 +4016,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -4035,7 +4033,7 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -4056,9 +4054,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>17</v>
@@ -4073,7 +4071,7 @@
         <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -4094,9 +4092,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="6">
         <v>95</v>
@@ -4111,7 +4109,7 @@
         <v>197</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -4132,9 +4130,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="6">
         <v>102</v>
@@ -4149,7 +4147,7 @@
         <v>197</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -4170,9 +4168,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>7</v>
@@ -4187,7 +4185,7 @@
         <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
@@ -4196,7 +4194,7 @@
         <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -4221,11 +4219,11 @@
       <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="5">
         <v>14</v>
@@ -4240,7 +4238,7 @@
         <v>89</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>14</v>
@@ -4252,18 +4250,18 @@
         <v>25</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="5" customFormat="1">
-      <c r="A2" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="B2" s="5">
         <v>12</v>
@@ -4278,7 +4276,7 @@
         <v>89</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>14</v>
@@ -4290,18 +4288,18 @@
         <v>25</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="5" customFormat="1">
-      <c r="A3" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="B3" s="5">
         <v>5</v>
@@ -4316,7 +4314,7 @@
         <v>89</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>14</v>
@@ -4328,7 +4326,7 @@
         <v>25</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>17</v>
@@ -4337,9 +4335,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1">
+    <row r="4" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="5">
         <v>5</v>
@@ -4354,7 +4352,7 @@
         <v>89</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>14</v>
@@ -4366,7 +4364,7 @@
         <v>25</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>17</v>
@@ -4375,9 +4373,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1">
+    <row r="5" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="5">
         <v>9</v>
@@ -4392,7 +4390,7 @@
         <v>89</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>14</v>
@@ -4404,18 +4402,18 @@
         <v>15</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1">
-      <c r="A6" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="B6" s="5">
         <v>59</v>
@@ -4430,7 +4428,7 @@
         <v>89</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>14</v>
@@ -4442,18 +4440,18 @@
         <v>15</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1">
-      <c r="A7" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="B7" s="5">
         <v>31</v>
@@ -4468,7 +4466,7 @@
         <v>89</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>14</v>
@@ -4480,7 +4478,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>20</v>
@@ -4489,9 +4487,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1">
+    <row r="8" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="5">
         <v>68</v>
@@ -4506,7 +4504,7 @@
         <v>89</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>14</v>
@@ -4518,7 +4516,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>20</v>
@@ -4527,9 +4525,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1">
+    <row r="9" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="5">
         <v>39</v>
@@ -4544,7 +4542,7 @@
         <v>89</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>14</v>
@@ -4556,7 +4554,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>17</v>
@@ -4565,9 +4563,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1">
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="5">
         <v>14</v>
@@ -4582,7 +4580,7 @@
         <v>89</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>14</v>
@@ -4594,7 +4592,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>17</v>
